--- a/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
+++ b/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
@@ -2725,7 +2725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI23"/>
+  <dimension ref="A1:AI22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
@@ -2956,100 +2956,100 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>246675636600000</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223665215611160.4</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>216655063043534.3</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>219960377560730</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>209604910850300</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>207848690924672.8</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>199257116795327.7</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>206813973336778.7</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>206296941812495.8</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>204563812579833.3</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>203009118040679.8</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>202737466037855.5</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>201741075363953.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>201366751594852</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>202519031718738.3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>201078845198712.5</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199305279980889.6</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>198182981394561.5</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>197929638311277</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>196159963966127</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>195271445009831.2</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>194765177021166.5</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>194096019648036.1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>193999693276912.2</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>193918694035055.4</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>193902494186684.1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>193387389917089.5</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>194550233578466</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>194244290987506.8</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>194075874382047.9</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>193626551314931</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>194092837859635.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3059,100 +3059,100 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>115935040000000</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>119251064612264.8</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>123545159799922.7</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>124402326767239.7</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>125254771170060.8</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>126859582645392.9</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>130032004231307.7</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>132260693944848.6</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>132865546238217.7</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>134660183625893.2</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>135633985029457.6</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>135466825441032.7</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>136034420109248.6</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>137061966745757.4</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>138281013868985.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>140000480738120.8</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>140765059627723.1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>141602366672447.7</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>142511746604060.5</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>143396242889952.2</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>144191500246881.8</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>145400850724018.7</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>146110711406631.9</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>146841391748140.1</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>147624741756046.7</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>148320275892267.3</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>148855037650628.4</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>149574975564418.8</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>150795637692184</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>152294633276003.5</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>153494237465515.9</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>154275340366700.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3574,100 +3574,100 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>35780770144986.45</v>
+        <v>22580836759885.23</v>
       </c>
       <c r="E9" t="n">
-        <v>35537493399585.43</v>
+        <v>22427307574987.39</v>
       </c>
       <c r="F9" t="n">
-        <v>36023474683350.84</v>
+        <v>22734004831435.46</v>
       </c>
       <c r="G9" t="n">
-        <v>31676277823117.9</v>
+        <v>19990538375396.64</v>
       </c>
       <c r="H9" t="n">
-        <v>31428232491443.22</v>
+        <v>19833999789980.46</v>
       </c>
       <c r="I9" t="n">
-        <v>30798447198084.34</v>
+        <v>19436549459943.17</v>
       </c>
       <c r="J9" t="n">
-        <v>26743474763303.09</v>
+        <v>16877502512529.73</v>
       </c>
       <c r="K9" t="n">
-        <v>27014388450213.09</v>
+        <v>17048473056633.3</v>
       </c>
       <c r="L9" t="n">
-        <v>27174950457355.24</v>
+        <v>17149801911725.72</v>
       </c>
       <c r="M9" t="n">
-        <v>27509796677563.75</v>
+        <v>17361119549874.78</v>
       </c>
       <c r="N9" t="n">
-        <v>27541411500119.61</v>
+        <v>17381071304530.53</v>
       </c>
       <c r="O9" t="n">
-        <v>27645419674051.86</v>
+        <v>17446709679214.51</v>
       </c>
       <c r="P9" t="n">
-        <v>27761882314795.18</v>
+        <v>17520207926138.59</v>
       </c>
       <c r="Q9" t="n">
-        <v>27719704040197.27</v>
+        <v>17493589697138.78</v>
       </c>
       <c r="R9" t="n">
-        <v>27862487792123.8</v>
+        <v>17583698897727.6</v>
       </c>
       <c r="S9" t="n">
-        <v>27963672821790</v>
+        <v>17647555618200.02</v>
       </c>
       <c r="T9" t="n">
-        <v>28087494006185.36</v>
+        <v>17725697758263.46</v>
       </c>
       <c r="U9" t="n">
-        <v>28220332612408.23</v>
+        <v>17809530690600.43</v>
       </c>
       <c r="V9" t="n">
-        <v>28289769804178.27</v>
+        <v>17853351711949.9</v>
       </c>
       <c r="W9" t="n">
-        <v>28376641208683.32</v>
+        <v>17908175266509.57</v>
       </c>
       <c r="X9" t="n">
-        <v>28406898267407.07</v>
+        <v>17927270151865.77</v>
       </c>
       <c r="Y9" t="n">
-        <v>28530618392710.21</v>
+        <v>18005348514686.43</v>
       </c>
       <c r="Z9" t="n">
-        <v>28638208747436.19</v>
+        <v>18073247562894.76</v>
       </c>
       <c r="AA9" t="n">
-        <v>28673118975131.87</v>
+        <v>18095279010223.93</v>
       </c>
       <c r="AB9" t="n">
-        <v>28911716364007.23</v>
+        <v>18245855106481.73</v>
       </c>
       <c r="AC9" t="n">
-        <v>29056095179236.74</v>
+        <v>18336970933365.06</v>
       </c>
       <c r="AD9" t="n">
-        <v>28993851921901.29</v>
+        <v>18297689922151.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>28761301837399.85</v>
+        <v>18150930210849.97</v>
       </c>
       <c r="AF9" t="n">
-        <v>28612810206466.59</v>
+        <v>18057218832790.58</v>
       </c>
       <c r="AG9" t="n">
-        <v>28482666408333.71</v>
+        <v>17975086563165.25</v>
       </c>
       <c r="AH9" t="n">
-        <v>28445985572736.43</v>
+        <v>17951937705343.51</v>
       </c>
       <c r="AI9" t="n">
-        <v>27642983415617.75</v>
+        <v>17445172184247.73</v>
       </c>
     </row>
     <row r="10">
@@ -3677,100 +3677,100 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>440834869998896.4</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>441467916562558.3</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>447525351560886.4</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>455999242523556.8</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>457762863357580.8</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>459526507637773.6</v>
       </c>
     </row>
     <row r="11">
@@ -3780,100 +3780,100 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>223005120569762.2</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>223325359813214.2</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>226389634248104.1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>230676321178813.8</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>231568483989645.5</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>232460658661189.9</v>
       </c>
     </row>
     <row r="12">
@@ -3883,100 +3883,100 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>128148721264603</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>125928051689878.2</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>127882565042797.7</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>129580858531164.4</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>130029482404333</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>130909673622980.3</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>131678970843842.1</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>132697739708021</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>133470198497099.4</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>134744443327427.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>135490148341764.5</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>136381630875471.3</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>136829032629833.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>137126220042202.6</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>137470405893019.8</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>137876043065561.5</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>138267041380226</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>138625015919316</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>138872096460620.5</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>139216627692839.6</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>139528267988485</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>140006435255409.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>140569008423379.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>141076719084060.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>141748060825805.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>142417702228340.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>143149034062802</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>143838495044242.2</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>144729685332147.6</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>145484662508733.7</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>146305023041465.1</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>147061780260660.6</v>
       </c>
     </row>
     <row r="13">
@@ -3986,100 +3986,100 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>13676990242261.1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>13439983771926.65</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>13648584059096.54</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>13829838645483.91</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>13877719141482.8</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13971659733241.86</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>14053764887934.74</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14162495522754.91</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>14244938103660.27</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>14380935044860.02</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>14460522262774.08</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>14555667948149.12</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>14603418010486.05</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>14635136074458.78</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>14671870163388.41</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>14715162797103.38</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>14756893062389.17</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>14795098783287.49</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>14821469067119.64</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>14858240017736.34</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>14891500601537.54</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>14942534189538.73</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>15002576206758.71</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>15056762886762.19</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>15128413499897.1</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>15199882640111.01</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>15277935844739.79</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>15351520278689.05</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>15446634773405.79</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>15527211585842.16</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>15614766599193.68</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15695533391094.22</v>
       </c>
     </row>
     <row r="14">
@@ -4089,100 +4089,100 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>51908392126514.13</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>51982933483147.26</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>52696197638441.66</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>53693999955959.62</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>53901666653957.52</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>54109336112746.39</v>
       </c>
     </row>
     <row r="15">
@@ -4501,100 +4501,100 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>34338000000</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>36829094312.68803</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>38202980645.55224</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>39262376301.2751</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>39466288724.96222</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>39745775066.16627</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>39740661636.41925</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39940770494.24579</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>39919592797.26521</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>39573017828.75632</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>39594242450.2364</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>39882141683.85328</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>40074707763.55796</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>40344864173.55869</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>40312865686.99025</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>40030632251.51466</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>39790594666.70186</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>39426931136.17003</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>38895718987.67429</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>38469715589.18841</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>38253819989.02546</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>38684055977.36748</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>38936135729.45551</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>38958068240.52824</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>38819939943.05949</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>38375967142.6598</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>37742872520.81974</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>37031293321.79291</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>36238930245.10314</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>35520668997.34554</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>34699069276.05871</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>33244305216.53254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4604,100 +4604,100 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>9416185722296.994</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>10099295009385.01</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>10476042894281.48</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>10766550968359.21</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>10822467948163.55</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>10899108850243.54</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>10897706642654.98</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>10952580606484.31</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>10946773246476.75</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>10851735263187.71</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>10857555490857.99</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>10936503381039.23</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>10989308959998.81</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>11063391403083.31</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>11054616760053.41</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>10977222548233.27</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>10911399306375.01</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>10811675287972.25</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>10666005993075.16</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>10549187100930.22</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>10489984087715.68</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>10607963643037.61</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>10677089094796.34</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>10683103440349.88</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>10645225820731.07</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>10523479349060.86</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>10349871784874.44</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>10154742135676.46</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>9937459885993.852</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>9740497881625.098</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>9515198342775.301</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>9116272122068.762</v>
       </c>
     </row>
     <row r="20">
@@ -4707,100 +4707,100 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>65064453237819.65</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>65157886927715.48</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>66051926222272.27</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>67302619213696.55</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>67562918552732.23</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>67823221352274.94</v>
       </c>
     </row>
     <row r="21">
@@ -4810,100 +4810,100 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>25371044620613.91</v>
+        <v>16011377471318.09</v>
       </c>
       <c r="E21" t="n">
-        <v>28098070029194.46</v>
+        <v>17732372166001.74</v>
       </c>
       <c r="F21" t="n">
-        <v>31773867817328.17</v>
+        <v>20052126309913.72</v>
       </c>
       <c r="G21" t="n">
-        <v>44857827983740.63</v>
+        <v>28309264641297.52</v>
       </c>
       <c r="H21" t="n">
-        <v>50117410566226.38</v>
+        <v>31628527341317.62</v>
       </c>
       <c r="I21" t="n">
-        <v>53991905405710.08</v>
+        <v>34073676932645.18</v>
       </c>
       <c r="J21" t="n">
-        <v>65921583847195.77</v>
+        <v>41602361206168.45</v>
       </c>
       <c r="K21" t="n">
-        <v>67262668297045.77</v>
+        <v>42448704337425.13</v>
       </c>
       <c r="L21" t="n">
-        <v>69117198323638.15</v>
+        <v>43619077127812.26</v>
       </c>
       <c r="M21" t="n">
-        <v>70744942076153.86</v>
+        <v>44646327682049.72</v>
       </c>
       <c r="N21" t="n">
-        <v>73592982588941.34</v>
+        <v>46443693631530.41</v>
       </c>
       <c r="O21" t="n">
-        <v>77525922637479.06</v>
+        <v>48925727329032.84</v>
       </c>
       <c r="P21" t="n">
-        <v>78625706265996.78</v>
+        <v>49619788258580.29</v>
       </c>
       <c r="Q21" t="n">
-        <v>79100430865596.75</v>
+        <v>49919381549782.01</v>
       </c>
       <c r="R21" t="n">
-        <v>79344884501604.53</v>
+        <v>50073653456945.68</v>
       </c>
       <c r="S21" t="n">
-        <v>79678706053944.14</v>
+        <v>50284324438866.08</v>
       </c>
       <c r="T21" t="n">
-        <v>81855874707845.09</v>
+        <v>51658310794477.4</v>
       </c>
       <c r="U21" t="n">
-        <v>83492827429996.88</v>
+        <v>52691373024630.05</v>
       </c>
       <c r="V21" t="n">
-        <v>84836609318446.77</v>
+        <v>53539418478683.23</v>
       </c>
       <c r="W21" t="n">
-        <v>86465835272950.31</v>
+        <v>54567604433723.88</v>
       </c>
       <c r="X21" t="n">
-        <v>88134339397814.97</v>
+        <v>55620578394991.25</v>
       </c>
       <c r="Y21" t="n">
-        <v>89940968143127.91</v>
+        <v>56760721232004.62</v>
       </c>
       <c r="Z21" t="n">
-        <v>92211201970587.17</v>
+        <v>58193439959323.85</v>
       </c>
       <c r="AA21" t="n">
-        <v>95119967205298.28</v>
+        <v>60029128589604.61</v>
       </c>
       <c r="AB21" t="n">
-        <v>97965110215178.66</v>
+        <v>61824665957981.77</v>
       </c>
       <c r="AC21" t="n">
-        <v>101235759226138.1</v>
+        <v>63888735320270.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>105536075061893.4</v>
+        <v>66602615695389.83</v>
       </c>
       <c r="AE21" t="n">
-        <v>109151225799706.2</v>
+        <v>68884096176166.09</v>
       </c>
       <c r="AF21" t="n">
-        <v>112365492010943</v>
+        <v>70912582995333.22</v>
       </c>
       <c r="AG21" t="n">
-        <v>114853058662989.3</v>
+        <v>72482457994434.12</v>
       </c>
       <c r="AH21" t="n">
-        <v>117351212341369.2</v>
+        <v>74059014345346.19</v>
       </c>
       <c r="AI21" t="n">
-        <v>122471652765768.4</v>
+        <v>77290466013199.03</v>
       </c>
     </row>
     <row r="22">
@@ -5009,7 +5009,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -5023,7 +5022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI23"/>
+  <dimension ref="A1:AI22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C23"/>
@@ -5255,100 +5254,100 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>235377000000000</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>214641431154002.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>202788353144550.7</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>195519725116725.4</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>183079706115855.6</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>180531817722032.5</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>170415543570941.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>179077719694635.7</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>178702013018597.7</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>178239080128136.2</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>177447809271028.6</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>176991655294808.7</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>175819949259753.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>175447569273112.1</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>176790401047617.7</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>175247654070709.6</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>173197199893225.8</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>171917073075455.1</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>171644221777230.8</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>169707000574671.5</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>168584232442120</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>168049409584577.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>167290485028141.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>166655066430866.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>166036072054824.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>165998683413621.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>165220614701225.1</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>166595918311850.8</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>166398995037647.4</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>166213035192649.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>165514932561214.3</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>166050906160371.5</v>
       </c>
     </row>
     <row r="4">
@@ -5461,100 +5460,100 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>305826000000000</v>
+        <v>152657000000000</v>
       </c>
       <c r="E5" t="n">
-        <v>300452008578619.9</v>
+        <v>149974502735497.9</v>
       </c>
       <c r="F5" t="n">
-        <v>295581044570243.1</v>
+        <v>147543098104672.6</v>
       </c>
       <c r="G5" t="n">
-        <v>290053428794222.2</v>
+        <v>144783917258308.9</v>
       </c>
       <c r="H5" t="n">
-        <v>290844836861634.8</v>
+        <v>145178958822293</v>
       </c>
       <c r="I5" t="n">
-        <v>292016358372307.4</v>
+        <v>145763738923575.3</v>
       </c>
       <c r="J5" t="n">
-        <v>283281173268014.4</v>
+        <v>141403458396523.8</v>
       </c>
       <c r="K5" t="n">
-        <v>257063703194956.8</v>
+        <v>128316669408855.1</v>
       </c>
       <c r="L5" t="n">
-        <v>257169740939037</v>
+        <v>128369599519107.5</v>
       </c>
       <c r="M5" t="n">
-        <v>257304533453882.1</v>
+        <v>128436882944776.7</v>
       </c>
       <c r="N5" t="n">
-        <v>257438746527502.7</v>
+        <v>128503877134870.8</v>
       </c>
       <c r="O5" t="n">
-        <v>257695909785943.1</v>
+        <v>128632243498566.9</v>
       </c>
       <c r="P5" t="n">
-        <v>258099273308335.4</v>
+        <v>128833587613317.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>258373711158280.7</v>
+        <v>128970576812598.2</v>
       </c>
       <c r="R5" t="n">
-        <v>252502704026601.2</v>
+        <v>126039987733511.4</v>
       </c>
       <c r="S5" t="n">
-        <v>246218881237555.1</v>
+        <v>122903336384354</v>
       </c>
       <c r="T5" t="n">
-        <v>246751170432394.7</v>
+        <v>123169035414575.9</v>
       </c>
       <c r="U5" t="n">
-        <v>247146892573639.3</v>
+        <v>123366565235179.6</v>
       </c>
       <c r="V5" t="n">
-        <v>247226891677694.2</v>
+        <v>123406497821773.7</v>
       </c>
       <c r="W5" t="n">
-        <v>247306673491290.1</v>
+        <v>123446321945027.2</v>
       </c>
       <c r="X5" t="n">
-        <v>247306673491290.1</v>
+        <v>123446321945027.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>244082445227814.1</v>
+        <v>121836906741553.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>244556826515282.1</v>
+        <v>122073700291484.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>244899891935251.8</v>
+        <v>122244945829196.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>241914502101491.9</v>
+        <v>120754749914354.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>242200673636232.8</v>
+        <v>120897596134031.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>242510783336560.2</v>
+        <v>121052391398407.2</v>
       </c>
       <c r="AE5" t="n">
-        <v>242672230147731.5</v>
+        <v>121132979660533.2</v>
       </c>
       <c r="AF5" t="n">
-        <v>242833604528749.7</v>
+        <v>121213531768212.4</v>
       </c>
       <c r="AG5" t="n">
-        <v>242934137581197.2</v>
+        <v>121263714140500.9</v>
       </c>
       <c r="AH5" t="n">
-        <v>243055602947879.2</v>
+        <v>121324345147941.6</v>
       </c>
       <c r="AI5" t="n">
-        <v>243231137423820.7</v>
+        <v>121411965449988.5</v>
       </c>
     </row>
     <row r="6">
@@ -5873,100 +5872,100 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>119690229855013.6</v>
+        <v>160945163240114.8</v>
       </c>
       <c r="E9" t="n">
-        <v>126939612691325.8</v>
+        <v>169369061988729.1</v>
       </c>
       <c r="F9" t="n">
-        <v>136409901229454.4</v>
+        <v>180815259968903.5</v>
       </c>
       <c r="G9" t="n">
-        <v>154700124084462.1</v>
+        <v>200017794603040</v>
       </c>
       <c r="H9" t="n">
-        <v>165018299835020.4</v>
+        <v>212061635355780.2</v>
       </c>
       <c r="I9" t="n">
-        <v>170476296338049.6</v>
+        <v>218158555622114.1</v>
       </c>
       <c r="J9" t="n">
-        <v>182325039684200</v>
+        <v>229917772377915.8</v>
       </c>
       <c r="K9" t="n">
-        <v>184329772245144.2</v>
+        <v>232433092224198.1</v>
       </c>
       <c r="L9" t="n">
-        <v>187864278002979.8</v>
+        <v>236693612245329</v>
       </c>
       <c r="M9" t="n">
-        <v>191100270590819.7</v>
+        <v>240697497205001.3</v>
       </c>
       <c r="N9" t="n">
-        <v>196223505109191.1</v>
+        <v>246762595910836.6</v>
       </c>
       <c r="O9" t="n">
-        <v>203516678078931.8</v>
+        <v>255428972295006.2</v>
       </c>
       <c r="P9" t="n">
-        <v>205835701436255.1</v>
+        <v>258230447536907.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>206271320698097.7</v>
+        <v>258721503832331.8</v>
       </c>
       <c r="R9" t="n">
-        <v>206955431047944.7</v>
+        <v>259607503146656.4</v>
       </c>
       <c r="S9" t="n">
-        <v>207693091568506.2</v>
+        <v>260533863048261.9</v>
       </c>
       <c r="T9" t="n">
-        <v>211907559190050</v>
+        <v>265576861129839.8</v>
       </c>
       <c r="U9" t="n">
-        <v>215177143129162.7</v>
+        <v>269509423538468.2</v>
       </c>
       <c r="V9" t="n">
-        <v>217656182703594.9</v>
+        <v>272473956145731.4</v>
       </c>
       <c r="W9" t="n">
-        <v>220711637620500</v>
+        <v>276128496912898.2</v>
       </c>
       <c r="X9" t="n">
-        <v>223591062457893.6</v>
+        <v>279544140851289.3</v>
       </c>
       <c r="Y9" t="n">
-        <v>227002744313126.6</v>
+        <v>283639433624435.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>231223874646945.7</v>
+        <v>288681380097809.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>236270434998053.2</v>
+        <v>294657779029428.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>242246242873748.6</v>
+        <v>301843007942372.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>248613559428812.4</v>
+        <v>309438633723431.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>255871322708307.7</v>
+        <v>317971878287892.4</v>
       </c>
       <c r="AE9" t="n">
-        <v>261217335676862.7</v>
+        <v>324154833747975.4</v>
       </c>
       <c r="AF9" t="n">
-        <v>266043244987335.5</v>
+        <v>329770010589402.2</v>
       </c>
       <c r="AG9" t="n">
-        <v>269452887117155.5</v>
+        <v>333723432107962.8</v>
       </c>
       <c r="AH9" t="n">
-        <v>273183191801832.9</v>
+        <v>338106725369089.8</v>
       </c>
       <c r="AI9" t="n">
-        <v>277951291393367.4</v>
+        <v>343294096737890.8</v>
       </c>
     </row>
     <row r="10">
@@ -5976,100 +5975,100 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>492611000000000</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>493930353728602.9</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>489963192561680.9</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>483336712623864.2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>474323253097556.2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>464872850944984.9</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>455196413299397.5</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>447759259965241.7</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>441347419014125.8</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>435674571166478.6</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>430549588112355.9</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>426248741833569.6</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>422551939096064.1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>418722512028137.6</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>415171911826310.4</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>411796565203967.9</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>408493874897706.8</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>405920273929980.3</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>403736709061264.4</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>401922769923825.6</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>400509143835676.7</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>399766504998449.6</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>399326835248508.8</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>399305104378783.9</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>399647028274810.7</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>400250842163571.2</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>400997786985552.2</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>402128653408193.3</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>403531543241022.4</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>405043489314385.9</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>406739272230177</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>408681185234502.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -6079,100 +6078,100 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>206028000000000</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>208039516748446</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>205976020533948.2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>206509079415651.2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>204453843411097.2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>203902995149718.2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>203073694014003.6</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>202893358068217.3</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>201843808609973.6</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>201372689331529.9</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>200288303335697.4</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>198760978545780.1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>197948533026878.2</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>197058010567029.9</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>196269196431358.4</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>195880822908177.2</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>195504300990567.5</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>195463957646349.5</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>194966645122461</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>194658766746615.7</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>194307935279062.9</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>194506874654200.8</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>194560985014991.8</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>194938129441176.9</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>195371946090367.4</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>196083856474330.8</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>196510035422153</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>197345777127359.9</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>197994311349812.8</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>198499333402982.2</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>199062392409495.5</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>199383774432901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -6182,100 +6181,100 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>40127000000000</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>51758247859818.09</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>55129001738897.81</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>65735068084537.19</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>62283802568218.3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>61019769863563.41</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>65345928504547.88</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>65888040195291.6</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>64650844703049.77</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>61760476926163.73</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>60254909309791.34</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>66722677501337.61</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>63086235219368.65</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>62192556046013.91</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>60627946562332.8</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>57504095037453.19</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>52292308386837.88</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>53481196896736.22</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>52914931714820.76</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>49101363830925.63</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>44267981875334.41</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>40419525615302.3</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>39885465088282.5</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>35390232009095.77</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>34373101658640.98</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>33412329454253.61</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>32878268927233.82</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>31356598983413.59</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>22309774678972.71</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>21147723381487.43</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>25774458801498.13</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>25632221575708.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -6285,100 +6284,100 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2833000000000</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>3654175896201.177</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3892153959336.544</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>4640951177100.054</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>4397288924558.587</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4308047150882.825</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4613477594970.572</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>4651751136971.643</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>4564404093097.914</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4360341693418.941</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>4254047351524.88</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>4710677233814.874</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>4453941345639.379</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>4390846843231.675</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>4280384095773.141</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>4059837546816.479</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>3691881019261.637</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>3775817549491.707</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>3735838750668.807</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>3466597645799.893</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>3125356808453.719</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>2853652554842.162</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>2815947431781.701</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>2498580189941.145</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>2426769930444.088</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>2358938603531.3</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>2321233480470.84</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>2213802300695.559</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>1575088884430.177</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>1493047084002.14</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>1819698501872.659</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>1809656433921.883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -6388,100 +6387,100 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>57728000000000</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>58858241158890.16</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>58583991933310.52</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>58164450051022.41</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>58220720563699.29</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>58522985862097.16</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>59019266040266.83</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>59499289586279.35</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>60006947817845.43</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>60575818705393.23</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>61128591872144.19</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>61694522899526.71</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>62251697910957.56</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>62835013841155.25</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>63398481742453.37</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63956101705693.01</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>64482400239820.49</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>65001420633646.94</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>65536475183726.12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>66057100582291.44</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>66592028003282.4</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>67169877382686.29</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>67761631506115.12</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>68358121188080.43</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>68997040203241.82</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>69663625686228.79</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>70367618903426.84</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>71095194566491.14</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>71856729587248.34</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>72630246524571</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>73414060918040.12</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>74211001389868.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -6800,100 +6799,100 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>730543453331090.1</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>735271549542886</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>733600007749461.5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>731165873510316.5</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>728152112159874.6</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>722881899995518.4</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>718370227612011.1</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>715554374597270.8</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>711149684883586.8</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>709869388509246.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>707857134762501.2</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>707637464960927.1</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>706711651917692.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>705673862399579.2</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>703955859012204.5</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>704578279191430.9</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>704327916695713.6</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>703357985305515.6</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>703626824879934.9</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>704115891257261.4</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>704982431675887</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>705812574938441.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>708072329346468.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>710573130883092.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>713458820340826.9</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>716752830189543.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>720905620852109</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>724695361887205.9</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>728982466698797</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>733352430260409.1</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>737866503511731.1</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>742610656727471.9</v>
       </c>
     </row>
     <row r="19">
@@ -6903,100 +6902,100 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4495000000000</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>4287337010939.172</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>4195618705077.43</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3589777946178.638</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>4368046270697.338</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>4438432930756.032</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4468578289351.415</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>4291779484837.439</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>4222292976195.45</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>3944560646640.09</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3927969366571.053</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>4229202771602.813</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>4201673680434.397</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>4188488728747.996</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>4158064906045.287</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>4144199983864.252</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>4100779010849.85</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>3819446075627.673</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>3790181440720.577</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>3703028651037.082</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>3656512193294.732</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>3579351731927.603</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>3630479037214.509</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>3466437774361.738</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>3426261231993.154</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>3299864430905.144</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>3375030312154.685</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>3224815116026.111</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>3199060424053.213</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>3178104380999.581</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>3146456611406.533</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>3110476458376.254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -7006,100 +7005,100 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>22889000000000</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>24894463342973.11</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>25308088980749.37</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>25854180498938.77</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>26371593648996.92</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>26751985904643.95</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>27016450017366.46</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>27233699891661.95</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>27437679491843.34</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>27681397034143.07</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>27926225999858.31</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>28223516580126.24</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>28476392737237.91</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>28709141805830.52</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>28933473208554.86</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29173680353400.15</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>29430364502214.12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>29626637018710.93</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>29824901594662.86</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>30022455588431.1</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>30241460661453.81</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>30475400107037.89</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>30692364533789.5</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>30967724239995.18</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>31193689374406.8</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>31452195528819.96</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>31713793019399.75</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>32019543778999.93</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>32274551682662.64</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>32528666803581.76</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>32838249848292.23</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>33043043277641.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -7308,7 +7307,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -7322,7 +7320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI23"/>
+  <dimension ref="A1:AI22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
@@ -7554,100 +7552,100 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>112261536600000</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101092344042242.4</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>100850995618055.4</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>108307123913126.2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105055639146492</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>104754413231988.1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>101939826171779.3</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>104550071074422</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>104247590142268.5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102778822796416.5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>101675990419302.3</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>101664829144862.8</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>101337551477611.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>101175878565486.2</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>101561322828512.9</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>101002135498844.8</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>100399500120631.2</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>100008229179725.2</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>99910700223074.36</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>99247293034200.98</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>98999940666168.3</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>98799087960457.89</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>98563321110706.08</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>98829856101890.42</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>99102339026773.55</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>99107490289842.61</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>99036708981773.23</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>99414173455510.3</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>99220685627213.06</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>99158463022024.11</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>99107797584633.12</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>99268011705292.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -7657,100 +7655,100 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>109291040000000</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>112615345131422.9</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>116755917242102.2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>117656237592638.3</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>118522356857082.2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>120152757320575.4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>123339603233547.7</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>125592724615925.4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>126243254058017.9</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>128047859222932.6</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>129022180165431.8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>128911710911165.4</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>129436831349756.7</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>130407857214422.4</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>131570913956730.9</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>133190340868368.3</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>133919273463667.8</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>134717495716413.6</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>135562019418835.1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>136394871997244.5</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>137142349858821.2</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>138287527555939.9</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>138951333983240</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>139639699257617.1</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>140378407351257.3</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>141043673257657.5</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>141541928927734.5</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>142218499131538.9</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>143364169499222.8</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>144780172694665</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>145894997535077.6</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>146616944892118.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -8275,100 +8273,100 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>127125869998896.4</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>126918713767967.2</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>135502552282485.5</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>148196378234046.8</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>155700032024173.1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>163481967022358.4</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>169644203710860.3</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>174380399076584.4</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>178463645721368.2</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>182076280082837.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>185340018222922.8</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>188078922115186.2</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>190433153526949.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>192871843966367.5</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>195132969354787.6</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197282488170949.8</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>199385737333649.9</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>201024681218347</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>202415238780804.9</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>203570407936318.7</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>204470646109008.9</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>204943580101525.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>205223574575023.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>205237413424359.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>205019666351114.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>204635140120012.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>204159463951273.3</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>203439295350530.9</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>202545894337222.3</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>201583043140783.8</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>200503119300816.9</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>199266452667968.8</v>
       </c>
     </row>
     <row r="11">
@@ -8378,100 +8376,100 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50394120569762.22</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>49029103840889.97</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>53822182831863</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>57662271112730.66</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>60276318046021.78</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>61629995373733.78</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>62324786850313.78</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>62475872954814.75</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>63355189268795.84</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>63749894696074.91</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>64658397186642.38</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>65937995393257.16</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>66618665173399.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>67364748095705.59</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68025619417916.12</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>68351000153591.97</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>68666451571460.09</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>68700251370462.25</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>69116901593057.81</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>69374843204552.5</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>69668771070889.88</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>69502098946314.91</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>69456765091273.44</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>69140792133480.09</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>68777338983260.59</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>68180897901047.03</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>67823843644525.84</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>67123656235642.25</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>66580311929665.31</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>66157202635687.69</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>65685469773293.94</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>65416214757266.78</v>
       </c>
     </row>
     <row r="12">
@@ -8687,100 +8685,100 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>31580392126514.13</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>31256936977501.48</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>32066773649730.18</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>33212310989822.15</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>33400162918874.38</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>33501394444843.28</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>33326637247957.31</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>33157604566358.39</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>32978840768352.65</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>32778521903987.49</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>32583871596793.18</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>32384587957577.68</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>32188387610564.69</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>31982982153437.15</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>31784565865022.72</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>31588208835284.37</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>31402881150248.62</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>31220116346934.74</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>31031705369696.49</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>30848375389409.01</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>30660009178663.71</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>30456528680733.38</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>30248151847635.73</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>30038107462675.39</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>29813122260690.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>29578394750674.97</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>29330494700106.76</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>29074290465094.78</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>28806127980651.32</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>28533746254246.54</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>28257738441912.14</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>27977108489179.79</v>
       </c>
     </row>
     <row r="15">
@@ -9099,100 +9097,100 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>34338000000</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>36829094312.68803</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>38202980645.55224</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>39262376301.2751</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>39466288724.96222</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>39745775066.16627</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>39740661636.41925</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39940770494.24579</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>39919592797.26521</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>39573017828.75632</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>39594242450.2364</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>39882141683.85328</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>40074707763.55796</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>40344864173.55869</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>40312865686.99025</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>40030632251.51466</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>39790594666.70186</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>39426931136.17003</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>38895718987.67429</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>38469715589.18841</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>38253819989.02546</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>38684055977.36748</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>38936135729.45551</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>38958068240.52824</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>38819939943.05949</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>38375967142.6598</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>37742872520.81974</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>37031293321.79291</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>36238930245.10314</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>35520668997.34554</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>34699069276.05871</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>33244305216.53254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -9202,100 +9200,100 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>9331185722296.994</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>10018221895718.75</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>10396704164597.03</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>10698668626774.07</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>10739868630475.17</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>10815178527859.95</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>10813206274558.24</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>10871423486081.38</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>10866930108995.86</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>10777144016254.59</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>10783277983369.99</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>10856529580018.93</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>10909855731336.53</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>10984187500537.47</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>10975988168949.11</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>10898856141419.37</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>10833853985813.88</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>10739449945051.59</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>10594334041470.87</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>10479163199853.88</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>10420839808198.42</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>10540278460120.18</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>10608437099654.36</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>10617553449066.06</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>10580435563841.33</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>10461079243025.95</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>10286050299550.04</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>10093761204672.63</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>9876965973636.895</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>9680400245944.35</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>9455699163249.26</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>9057453323634.506</v>
       </c>
     </row>
     <row r="20">
@@ -9305,100 +9303,100 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>19539453237819.65</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>15644127318783.2</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>15715487284415</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>15880033377085.62</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>15111225561750.32</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>14614948456608.22</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>14088943444082.88</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>13656845033173.61</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>13251140489582.48</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>12766399298914.67</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>12279447546361.64</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>11688152440996.72</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>11185195254028.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>10722269772457.81</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>10276086579263.45</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9798327381872.477</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>9287796302543.711</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>8897420737271.43</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>8503083072008.141</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>8110158716802.625</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>7674569309254.938</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>7209276231347.867</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>6777745560376.336</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>6230069793631.898</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>5780637195261.984</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>5266482243990.219</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>4746178789988.523</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>4138056839234.969</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>3630859722093.758</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>3125438302204.609</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>2509694140797.633</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>2102370934405.289</v>
       </c>
     </row>
     <row r="21">
@@ -9607,7 +9605,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -18670,7 +18667,6 @@
         </is>
       </c>
     </row>
-    <row r="15"/>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
@@ -31801,7 +31797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI74"/>
+  <dimension ref="A1:AI73"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C77" sqref="C77"/>
@@ -34247,7 +34243,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24"/>
     <row r="26">
       <c r="A26" s="258" t="inlineStr">
         <is>
@@ -39116,7 +39111,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
